--- a/InputData/elec/BPHC/BAU Pumped Hydro Cap.xlsx
+++ b/InputData/elec/BPHC/BAU Pumped Hydro Cap.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-1.4.2-us - AEO Update\InputData\elec\BPHC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Texas\InputData\elec\BPHC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{448F12AF-1013-496B-9798-070A91186A7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="25875" windowHeight="12075"/>
+    <workbookView xWindow="49575" yWindow="1365" windowWidth="16665" windowHeight="13770" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="AEO Table 9" sheetId="4" r:id="rId2"/>
-    <sheet name="BPHC" sheetId="3" r:id="rId3"/>
+    <sheet name="Texas Notes" sheetId="5" r:id="rId3"/>
+    <sheet name="BPHC" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="142">
   <si>
     <t>BPHC BAU Pumped Hydro Capacity</t>
   </si>
@@ -441,12 +453,18 @@
   </si>
   <si>
     <t>Projections:  EIA, AEO2018 National Energy Modeling System run ref2018.d121317a.</t>
+  </si>
+  <si>
+    <t>EIA 860 2018 confirms that there is NO pumped hydro storage in Texas</t>
+  </si>
+  <si>
+    <t>Using the AEO assumptions that no new storage will be built, we can assume that Texas will never have any pumped hydro storage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -620,9 +638,6 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -630,17 +645,20 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Body: normal cell" xfId="6"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="2"/>
-    <cellStyle name="Footnotes: top row" xfId="7"/>
-    <cellStyle name="Header: bottom row" xfId="3"/>
+    <cellStyle name="Body: normal cell" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Header: bottom row" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="8"/>
-    <cellStyle name="Parent row" xfId="5"/>
-    <cellStyle name="Table title" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Parent row" xfId="5" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Table title" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -731,6 +749,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -766,6 +801,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -941,21 +993,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -963,35 +1015,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -999,7 +1051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AL114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1009,14 +1061,14 @@
       <selection pane="bottomRight" activeCell="E9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.86328125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.73046875" customWidth="1"/>
     <col min="38" max="38" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="5" t="s">
         <v>120</v>
       </c>
@@ -1126,180 +1178,180 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="16" t="s">
+    <row r="2" spans="1:38" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="16" t="s">
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C4" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16" t="s">
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="16" t="s">
+    <row r="5" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C5" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="16" t="s">
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="16" t="s">
         <v>114</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="18" t="s">
+      <c r="L12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="18" t="s">
+      <c r="M12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="N12" s="18" t="s">
+      <c r="N12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="O12" s="18" t="s">
+      <c r="O12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="P12" s="18" t="s">
+      <c r="P12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="Q12" s="18" t="s">
+      <c r="Q12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="R12" s="18" t="s">
+      <c r="R12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="S12" s="18" t="s">
+      <c r="S12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="T12" s="18" t="s">
+      <c r="T12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="U12" s="18" t="s">
+      <c r="U12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="V12" s="18" t="s">
+      <c r="V12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="W12" s="18" t="s">
+      <c r="W12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="X12" s="18" t="s">
+      <c r="X12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="Y12" s="18" t="s">
+      <c r="Y12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="Z12" s="18" t="s">
+      <c r="Z12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AA12" s="18" t="s">
+      <c r="AA12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AB12" s="18" t="s">
+      <c r="AB12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AC12" s="18" t="s">
+      <c r="AC12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AD12" s="18" t="s">
+      <c r="AD12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AE12" s="18" t="s">
+      <c r="AE12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AF12" s="18" t="s">
+      <c r="AF12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AG12" s="18" t="s">
+      <c r="AG12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AH12" s="18" t="s">
+      <c r="AH12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AI12" s="18" t="s">
+      <c r="AI12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AJ12" s="18" t="s">
+      <c r="AJ12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AK12" s="18" t="s">
+      <c r="AK12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AL12" s="18" t="s">
+      <c r="AL12" s="17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="6" t="s">
         <v>8</v>
       </c>
@@ -1412,19 +1464,19 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+    <row r="17" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="16" t="s">
         <v>113</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -1539,8 +1591,8 @@
         <v>-9.1210000000000006E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+    <row r="18" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="16" t="s">
         <v>112</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1655,8 +1707,8 @@
         <v>-1.891E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+    <row r="19" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="16" t="s">
         <v>111</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -1771,8 +1823,8 @@
         <v>1.3315E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+    <row r="20" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="16" t="s">
         <v>110</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1887,8 +1939,8 @@
         <v>1.3479E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+    <row r="21" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="16" t="s">
         <v>109</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -2003,8 +2055,8 @@
         <v>-6.8719999999999996E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+    <row r="22" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="16" t="s">
         <v>108</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -2119,8 +2171,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+    <row r="23" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="16" t="s">
         <v>126</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -2235,8 +2287,8 @@
         <v>0.13320899999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+    <row r="24" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="16" t="s">
         <v>107</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -2351,8 +2403,8 @@
         <v>8.7299999999999997E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+    <row r="25" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="16" t="s">
         <v>106</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -2467,8 +2519,8 @@
         <v>2.1197000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+    <row r="26" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="16" t="s">
         <v>105</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -2583,8 +2635,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+    <row r="27" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="16" t="s">
         <v>104</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -2699,14 +2751,14 @@
         <v>8.3890000000000006E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AK28" s="19"/>
-    </row>
-    <row r="29" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="AK28" s="18"/>
+    </row>
+    <row r="29" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="16" t="s">
         <v>103</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -2821,8 +2873,8 @@
         <v>-4.6550000000000003E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+    <row r="30" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="16" t="s">
         <v>102</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -2937,8 +2989,8 @@
         <v>5.934E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+    <row r="31" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="16" t="s">
         <v>101</v>
       </c>
       <c r="B31" s="8" t="s">
@@ -3053,8 +3105,8 @@
         <v>-1.7200000000000001E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
+    <row r="32" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="16" t="s">
         <v>100</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -3169,8 +3221,8 @@
         <v>-4.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+    <row r="33" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="16" t="s">
         <v>99</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -3285,8 +3337,8 @@
         <v>5.8E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
+    <row r="34" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="16" t="s">
         <v>98</v>
       </c>
       <c r="B34" s="7" t="s">
@@ -3401,13 +3453,13 @@
         <v>-4.9299999999999995E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
+    <row r="37" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="16" t="s">
         <v>97</v>
       </c>
       <c r="B37" s="8" t="s">
@@ -3522,8 +3574,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
+    <row r="38" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="16" t="s">
         <v>96</v>
       </c>
       <c r="B38" s="8" t="s">
@@ -3638,8 +3690,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
+    <row r="39" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="16" t="s">
         <v>95</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -3754,8 +3806,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
+    <row r="40" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="16" t="s">
         <v>94</v>
       </c>
       <c r="B40" s="8" t="s">
@@ -3870,8 +3922,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
+    <row r="41" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="16" t="s">
         <v>93</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -3986,8 +4038,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
+    <row r="42" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="16" t="s">
         <v>92</v>
       </c>
       <c r="B42" s="8" t="s">
@@ -4102,8 +4154,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
+    <row r="43" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="16" t="s">
         <v>128</v>
       </c>
       <c r="B43" s="8" t="s">
@@ -4218,8 +4270,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
+    <row r="44" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="16" t="s">
         <v>91</v>
       </c>
       <c r="B44" s="8" t="s">
@@ -4334,8 +4386,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
+    <row r="45" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="16" t="s">
         <v>90</v>
       </c>
       <c r="B45" s="8" t="s">
@@ -4450,8 +4502,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
+    <row r="46" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="16" t="s">
         <v>89</v>
       </c>
       <c r="B46" s="8" t="s">
@@ -4566,8 +4618,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
+    <row r="47" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="16" t="s">
         <v>88</v>
       </c>
       <c r="B47" s="7" t="s">
@@ -4682,13 +4734,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
+    <row r="49" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="16" t="s">
         <v>87</v>
       </c>
       <c r="B49" s="8" t="s">
@@ -4803,8 +4855,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
+    <row r="50" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="16" t="s">
         <v>86</v>
       </c>
       <c r="B50" s="8" t="s">
@@ -4919,8 +4971,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
+    <row r="51" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="16" t="s">
         <v>85</v>
       </c>
       <c r="B51" s="8" t="s">
@@ -5035,8 +5087,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="17" t="s">
+    <row r="52" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="16" t="s">
         <v>84</v>
       </c>
       <c r="B52" s="8" t="s">
@@ -5151,8 +5203,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="17" t="s">
+    <row r="53" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="16" t="s">
         <v>83</v>
       </c>
       <c r="B53" s="8" t="s">
@@ -5267,8 +5319,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="17" t="s">
+    <row r="54" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="16" t="s">
         <v>82</v>
       </c>
       <c r="B54" s="8" t="s">
@@ -5383,8 +5435,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="17" t="s">
+    <row r="55" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="16" t="s">
         <v>129</v>
       </c>
       <c r="B55" s="8" t="s">
@@ -5499,8 +5551,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="17" t="s">
+    <row r="56" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="16" t="s">
         <v>81</v>
       </c>
       <c r="B56" s="8" t="s">
@@ -5615,8 +5667,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="17" t="s">
+    <row r="57" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="16" t="s">
         <v>80</v>
       </c>
       <c r="B57" s="8" t="s">
@@ -5731,8 +5783,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="17" t="s">
+    <row r="58" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="16" t="s">
         <v>79</v>
       </c>
       <c r="B58" s="8" t="s">
@@ -5847,8 +5899,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="17" t="s">
+    <row r="59" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="16" t="s">
         <v>78</v>
       </c>
       <c r="B59" s="7" t="s">
@@ -5963,8 +6015,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="17" t="s">
+    <row r="60" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="16" t="s">
         <v>77</v>
       </c>
       <c r="B60" s="7" t="s">
@@ -6079,13 +6131,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B62" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="17" t="s">
+    <row r="63" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="16" t="s">
         <v>75</v>
       </c>
       <c r="B63" s="8" t="s">
@@ -6200,8 +6252,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="17" t="s">
+    <row r="64" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="16" t="s">
         <v>74</v>
       </c>
       <c r="B64" s="8" t="s">
@@ -6316,8 +6368,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="17" t="s">
+    <row r="65" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="16" t="s">
         <v>73</v>
       </c>
       <c r="B65" s="8" t="s">
@@ -6432,8 +6484,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="17" t="s">
+    <row r="66" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="16" t="s">
         <v>72</v>
       </c>
       <c r="B66" s="8" t="s">
@@ -6548,8 +6600,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="17" t="s">
+    <row r="67" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="16" t="s">
         <v>71</v>
       </c>
       <c r="B67" s="8" t="s">
@@ -6664,8 +6716,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="17" t="s">
+    <row r="68" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="16" t="s">
         <v>70</v>
       </c>
       <c r="B68" s="8" t="s">
@@ -6780,8 +6832,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="17" t="s">
+    <row r="69" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="16" t="s">
         <v>130</v>
       </c>
       <c r="B69" s="8" t="s">
@@ -6896,8 +6948,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="17" t="s">
+    <row r="70" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="16" t="s">
         <v>69</v>
       </c>
       <c r="B70" s="8" t="s">
@@ -7012,8 +7064,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="17" t="s">
+    <row r="71" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="16" t="s">
         <v>68</v>
       </c>
       <c r="B71" s="8" t="s">
@@ -7128,8 +7180,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="17" t="s">
+    <row r="72" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="16" t="s">
         <v>67</v>
       </c>
       <c r="B72" s="7" t="s">
@@ -7244,8 +7296,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="17" t="s">
+    <row r="74" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B74" s="7" t="s">
@@ -7360,13 +7412,13 @@
         <v>8.1460000000000005E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B76" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="17" t="s">
+    <row r="77" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="16" t="s">
         <v>65</v>
       </c>
       <c r="B77" s="8" t="s">
@@ -7481,8 +7533,8 @@
         <v>-8.8330000000000006E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="17" t="s">
+    <row r="78" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="16" t="s">
         <v>64</v>
       </c>
       <c r="B78" s="8" t="s">
@@ -7597,8 +7649,8 @@
         <v>-4.5700000000000003E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="17" t="s">
+    <row r="79" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B79" s="8" t="s">
@@ -7713,8 +7765,8 @@
         <v>2.6145000000000002E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="17" t="s">
+    <row r="80" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A80" s="16" t="s">
         <v>62</v>
       </c>
       <c r="B80" s="8" t="s">
@@ -7829,8 +7881,8 @@
         <v>1.2409999999999999E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="17" t="s">
+    <row r="81" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A81" s="16" t="s">
         <v>61</v>
       </c>
       <c r="B81" s="8" t="s">
@@ -7945,8 +7997,8 @@
         <v>6.9667999999999994E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="17" t="s">
+    <row r="82" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A82" s="16" t="s">
         <v>60</v>
       </c>
       <c r="B82" s="8" t="s">
@@ -8061,8 +8113,8 @@
         <v>1.915E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="17" t="s">
+    <row r="83" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A83" s="16" t="s">
         <v>59</v>
       </c>
       <c r="B83" s="7" t="s">
@@ -8177,8 +8229,8 @@
         <v>5.5109999999999999E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="17" t="s">
+    <row r="85" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A85" s="16" t="s">
         <v>58</v>
       </c>
       <c r="B85" s="7" t="s">
@@ -8293,180 +8345,180 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="87" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="15" t="s">
+    <row r="86" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="87" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="15"/>
-      <c r="L87" s="15"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="15"/>
-      <c r="O87" s="15"/>
-      <c r="P87" s="15"/>
-      <c r="Q87" s="15"/>
-      <c r="R87" s="15"/>
-      <c r="S87" s="15"/>
-      <c r="T87" s="15"/>
-      <c r="U87" s="15"/>
-      <c r="V87" s="15"/>
-      <c r="W87" s="15"/>
-      <c r="X87" s="15"/>
-      <c r="Y87" s="15"/>
-      <c r="Z87" s="15"/>
-      <c r="AA87" s="15"/>
-      <c r="AB87" s="15"/>
-      <c r="AC87" s="15"/>
-      <c r="AD87" s="15"/>
-      <c r="AE87" s="15"/>
-      <c r="AF87" s="15"/>
-      <c r="AG87" s="15"/>
-      <c r="AH87" s="15"/>
-      <c r="AI87" s="15"/>
-      <c r="AJ87" s="15"/>
-      <c r="AK87" s="15"/>
-      <c r="AL87" s="15"/>
-    </row>
-    <row r="88" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="20" t="s">
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="20"/>
+      <c r="K87" s="20"/>
+      <c r="L87" s="20"/>
+      <c r="M87" s="20"/>
+      <c r="N87" s="20"/>
+      <c r="O87" s="20"/>
+      <c r="P87" s="20"/>
+      <c r="Q87" s="20"/>
+      <c r="R87" s="20"/>
+      <c r="S87" s="20"/>
+      <c r="T87" s="20"/>
+      <c r="U87" s="20"/>
+      <c r="V87" s="20"/>
+      <c r="W87" s="20"/>
+      <c r="X87" s="20"/>
+      <c r="Y87" s="20"/>
+      <c r="Z87" s="20"/>
+      <c r="AA87" s="20"/>
+      <c r="AB87" s="20"/>
+      <c r="AC87" s="20"/>
+      <c r="AD87" s="20"/>
+      <c r="AE87" s="20"/>
+      <c r="AF87" s="20"/>
+      <c r="AG87" s="20"/>
+      <c r="AH87" s="20"/>
+      <c r="AI87" s="20"/>
+      <c r="AJ87" s="20"/>
+      <c r="AK87" s="20"/>
+      <c r="AL87" s="20"/>
+    </row>
+    <row r="88" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="89" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="20" t="s">
+    <row r="89" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="20" t="s">
+    <row r="90" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B90" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="91" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="20" t="s">
+    <row r="91" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B91" s="19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="20" t="s">
+    <row r="92" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B92" s="19" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="20" t="s">
+    <row r="93" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B93" s="19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="20" t="s">
+    <row r="94" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B94" s="19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="95" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="20" t="s">
+    <row r="95" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B95" s="19" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="96" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="20" t="s">
+    <row r="96" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B96" s="19" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="97" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="20" t="s">
+    <row r="97" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B97" s="19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="98" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="20" t="s">
+    <row r="98" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B98" s="19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="99" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="20" t="s">
+    <row r="99" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="100" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="20" t="s">
+    <row r="100" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B100" s="19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="20" t="s">
+    <row r="101" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B101" s="19" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="102" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="20" t="s">
+    <row r="102" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B102" s="19" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="103" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="20" t="s">
+    <row r="103" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B103" s="19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="104" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="20" t="s">
+    <row r="104" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B104" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="105" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="20" t="s">
+    <row r="105" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B105" s="19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="20" t="s">
+    <row r="106" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B106" s="19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="107" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="20" t="s">
+    <row r="107" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B107" s="19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="108" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="20" t="s">
+    <row r="108" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B108" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="109" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="20" t="s">
+    <row r="109" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B109" s="19" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="110" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="20" t="s">
+    <row r="110" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B110" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="111" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="20" t="s">
+    <row r="111" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B111" s="19" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="112" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="20" t="s">
+    <row r="112" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B112" s="19" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="113" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="20" t="s">
+    <row r="113" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B113" s="19" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="114" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="20" t="s">
+    <row r="114" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B114" s="19" t="s">
         <v>139</v>
       </c>
     </row>
@@ -8480,22 +8532,47 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDCCA653-5D0F-4AFC-BDED-860CD114422E}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AJ2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -8605,149 +8682,114 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>56</v>
       </c>
       <c r="B2" s="11">
-        <f>'AEO Table 9'!C22*1000</f>
-        <v>22778.704000000002</v>
+        <v>0</v>
       </c>
       <c r="C2" s="11">
-        <f>'AEO Table 9'!D22*1000</f>
-        <v>22778.704000000002</v>
+        <v>0</v>
       </c>
       <c r="D2" s="11">
-        <f>'AEO Table 9'!E22*1000</f>
-        <v>22778.704000000002</v>
+        <v>0</v>
       </c>
       <c r="E2" s="11">
-        <f>'AEO Table 9'!F22*1000</f>
-        <v>22778.704000000002</v>
+        <v>0</v>
       </c>
       <c r="F2" s="11">
-        <f>'AEO Table 9'!G22*1000</f>
-        <v>22778.704000000002</v>
+        <v>0</v>
       </c>
       <c r="G2" s="11">
-        <f>'AEO Table 9'!H22*1000</f>
-        <v>22778.704000000002</v>
+        <v>0</v>
       </c>
       <c r="H2" s="11">
-        <f>'AEO Table 9'!I22*1000</f>
-        <v>22778.704000000002</v>
+        <v>0</v>
       </c>
       <c r="I2" s="11">
-        <f>'AEO Table 9'!J22*1000</f>
-        <v>22778.704000000002</v>
+        <v>0</v>
       </c>
       <c r="J2" s="11">
-        <f>'AEO Table 9'!K22*1000</f>
-        <v>22778.704000000002</v>
+        <v>0</v>
       </c>
       <c r="K2" s="11">
-        <f>'AEO Table 9'!L22*1000</f>
-        <v>22778.704000000002</v>
+        <v>0</v>
       </c>
       <c r="L2" s="11">
-        <f>'AEO Table 9'!M22*1000</f>
-        <v>22778.704000000002</v>
+        <v>0</v>
       </c>
       <c r="M2" s="11">
-        <f>'AEO Table 9'!N22*1000</f>
-        <v>22778.704000000002</v>
+        <v>0</v>
       </c>
       <c r="N2" s="11">
-        <f>'AEO Table 9'!O22*1000</f>
-        <v>22778.704000000002</v>
+        <v>0</v>
       </c>
       <c r="O2" s="11">
-        <f>'AEO Table 9'!P22*1000</f>
-        <v>22778.704000000002</v>
+        <v>0</v>
       </c>
       <c r="P2" s="11">
-        <f>'AEO Table 9'!Q22*1000</f>
-        <v>22778.704000000002</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="11">
-        <f>'AEO Table 9'!R22*1000</f>
-        <v>22778.704000000002</v>
+        <v>0</v>
       </c>
       <c r="R2" s="11">
-        <f>'AEO Table 9'!S22*1000</f>
-        <v>22778.704000000002</v>
+        <v>0</v>
       </c>
       <c r="S2" s="11">
-        <f>'AEO Table 9'!T22*1000</f>
-        <v>22778.704000000002</v>
+        <v>0</v>
       </c>
       <c r="T2" s="11">
-        <f>'AEO Table 9'!U22*1000</f>
-        <v>22778.704000000002</v>
+        <v>0</v>
       </c>
       <c r="U2" s="11">
-        <f>'AEO Table 9'!V22*1000</f>
-        <v>22778.704000000002</v>
+        <v>0</v>
       </c>
       <c r="V2" s="11">
-        <f>'AEO Table 9'!W22*1000</f>
-        <v>22778.704000000002</v>
+        <v>0</v>
       </c>
       <c r="W2" s="11">
-        <f>'AEO Table 9'!X22*1000</f>
-        <v>22778.704000000002</v>
+        <v>0</v>
       </c>
       <c r="X2" s="11">
-        <f>'AEO Table 9'!Y22*1000</f>
-        <v>22778.704000000002</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="11">
-        <f>'AEO Table 9'!Z22*1000</f>
-        <v>22778.704000000002</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="11">
-        <f>'AEO Table 9'!AA22*1000</f>
-        <v>22778.704000000002</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="11">
-        <f>'AEO Table 9'!AB22*1000</f>
-        <v>22778.704000000002</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="11">
-        <f>'AEO Table 9'!AC22*1000</f>
-        <v>22778.704000000002</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="11">
-        <f>'AEO Table 9'!AD22*1000</f>
-        <v>22778.704000000002</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="11">
-        <f>'AEO Table 9'!AE22*1000</f>
-        <v>22778.704000000002</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="11">
-        <f>'AEO Table 9'!AF22*1000</f>
-        <v>22778.704000000002</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="11">
-        <f>'AEO Table 9'!AG22*1000</f>
-        <v>22778.704000000002</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="11">
-        <f>'AEO Table 9'!AH22*1000</f>
-        <v>22778.704000000002</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="11">
-        <f>'AEO Table 9'!AI22*1000</f>
-        <v>22778.704000000002</v>
+        <v>0</v>
       </c>
       <c r="AI2" s="11">
-        <f>'AEO Table 9'!AJ22*1000</f>
-        <v>22778.704000000002</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="11">
-        <f>'AEO Table 9'!AK22*1000</f>
-        <v>22778.704000000002</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
